--- a/Experimental_scripts/Lists/repswitch_V2L3.xlsx
+++ b/Experimental_scripts/Lists/repswitch_V2L3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Experimental_scripts\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25CC825-3DF0-4A9F-B187-6820B8A6BB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E29899D-26BC-4480-B605-2F7AF9573CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="600" windowWidth="12960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="11" r:id="rId1"/>
@@ -230,208 +230,97 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_590.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_663.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_128.png</t>
-  </si>
-  <si>
     <t>muñeca</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_8.png</t>
   </si>
   <si>
     <t>pierna</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_135.png</t>
-  </si>
-  <si>
     <t>traje</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_673.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_728.png</t>
   </si>
   <si>
     <t>pulpo</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_16.png</t>
-  </si>
-  <si>
     <t>cazador</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_498.png</t>
   </si>
   <si>
     <t>taza</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_142.png</t>
-  </si>
-  <si>
     <t>vaso</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_178.png</t>
   </si>
   <si>
     <t>puente</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_719.png</t>
-  </si>
-  <si>
     <t>baño</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_169.png</t>
   </si>
   <si>
     <t>espalda</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_48.png</t>
-  </si>
-  <si>
     <t>bombero</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_19.png</t>
   </si>
   <si>
     <t>pavo</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_319.png</t>
-  </si>
-  <si>
     <t>vaca</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_338.png</t>
   </si>
   <si>
     <t>regalo</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_687.png</t>
-  </si>
-  <si>
     <t>camisa</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_30.png</t>
   </si>
   <si>
     <t>granja</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_264.png</t>
-  </si>
-  <si>
     <t>mano</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_175.png</t>
   </si>
   <si>
     <t>pintor</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_446.png</t>
-  </si>
-  <si>
     <t>cerdo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_152.png</t>
   </si>
   <si>
     <t>caracol</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_517.png</t>
-  </si>
-  <si>
     <t>cuerda</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_199.png</t>
   </si>
   <si>
     <t>falda</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_552.png</t>
-  </si>
-  <si>
     <t>manzana</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_464.png</t>
   </si>
   <si>
     <t>goma</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_235.png</t>
-  </si>
-  <si>
     <t>aguja</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_391.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_320.png</t>
   </si>
   <si>
     <t>iglesia</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_271.png</t>
-  </si>
-  <si>
     <t>conejo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_576.png</t>
   </si>
   <si>
     <t>guante</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_242.png</t>
-  </si>
-  <si>
     <t>cartero</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_646.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_35.png</t>
   </si>
   <si>
     <t>oreja</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_610.png</t>
-  </si>
-  <si>
     <t>miel</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_340.png</t>
   </si>
   <si>
     <t>Extra3</t>
@@ -452,13 +341,124 @@
     <t>Extra1</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_381.png</t>
-  </si>
-  <si>
     <t>fresa</t>
   </si>
   <si>
     <t>trial_no</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_663.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_128.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_8.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_135.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_673.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_728.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_16.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_498.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_178.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_719.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_169.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_48.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_19.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_319.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_338.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_142.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_687.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_30.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_264.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_175.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_446.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_152.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_517.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_199.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_552.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_590.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_464.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_235.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_391.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_320.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_271.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_576.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_242.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_646.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_35.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_610.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_340.png</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8B3C1-5827-4AE1-A906-F5C89DB7DBC9}">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D411" sqref="D411"/>
     </sheetView>
   </sheetViews>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>58</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>57</v>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M2" s="8">
         <v>0</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -1676,10 +1676,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>1</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>56</v>
@@ -1864,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -1986,10 +1986,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1</v>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1</v>
@@ -2504,10 +2504,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>2</v>
@@ -2761,10 +2761,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>1</v>
@@ -2812,10 +2812,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>2</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>1</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>2</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>1</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>1</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>1</v>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>1</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>2</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>1</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>1</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>1</v>
@@ -3742,10 +3742,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>2</v>
@@ -3793,10 +3793,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>1</v>
@@ -3846,10 +3846,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>1</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>1</v>
@@ -3999,10 +3999,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>1</v>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B52" s="34" t="s">
         <v>54</v>
@@ -4134,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="L52" s="36" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M52" s="39">
         <v>0</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>2</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>1</v>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>1</v>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>1</v>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>2</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>53</v>
@@ -4495,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M59" s="5">
         <v>0</v>
@@ -4513,10 +4513,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>2</v>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>1</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>1</v>
@@ -4719,10 +4719,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>1</v>
@@ -4770,10 +4770,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>1</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2</v>
@@ -4872,10 +4872,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>1</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>1</v>
@@ -4976,10 +4976,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>1</v>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2</v>
@@ -5078,10 +5078,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>1</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B72" s="33" t="s">
         <v>55</v>
@@ -5162,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M72" s="10">
         <v>0</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
@@ -5233,10 +5233,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2</v>
@@ -5284,10 +5284,10 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>1</v>
@@ -5335,10 +5335,10 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2</v>
@@ -5388,10 +5388,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>2</v>
@@ -5492,10 +5492,10 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>1</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>2</v>
@@ -5596,10 +5596,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>2</v>
@@ -5647,10 +5647,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>2</v>
@@ -5700,10 +5700,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>1</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>2</v>
@@ -5802,10 +5802,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>1</v>
@@ -5855,10 +5855,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>1</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>1</v>
@@ -5957,10 +5957,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>2</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>1</v>
@@ -6059,10 +6059,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>2</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>1</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>2</v>
@@ -6214,10 +6214,10 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>1</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>1</v>
@@ -6318,10 +6318,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>1</v>
@@ -6369,10 +6369,10 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>2</v>
@@ -6420,10 +6420,10 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>1</v>
@@ -6473,10 +6473,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>1</v>
@@ -6526,10 +6526,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>2</v>
@@ -6577,10 +6577,10 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>2</v>
@@ -6628,10 +6628,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>2</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B102" s="33" t="s">
         <v>52</v>
@@ -6712,7 +6712,7 @@
         <v>2</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M102" s="10">
         <v>0</v>
@@ -6730,10 +6730,10 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="31" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>2</v>
@@ -6781,10 +6781,10 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>2</v>
@@ -6832,10 +6832,10 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>1</v>
@@ -6883,10 +6883,10 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>1</v>
@@ -6936,10 +6936,10 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>1</v>
@@ -6987,10 +6987,10 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>2</v>
@@ -7040,10 +7040,10 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>1</v>
@@ -7093,10 +7093,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>1</v>
@@ -7144,10 +7144,10 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>2</v>
@@ -7195,10 +7195,10 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>1</v>
@@ -7248,10 +7248,10 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>2</v>
@@ -7299,10 +7299,10 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>2</v>
@@ -7352,10 +7352,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>2</v>
@@ -7405,10 +7405,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>1</v>
@@ -7456,10 +7456,10 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>1</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>2</v>
@@ -7560,10 +7560,10 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>2</v>
@@ -7611,10 +7611,10 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>1</v>
@@ -7662,10 +7662,10 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>2</v>
@@ -7713,10 +7713,10 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>2</v>
@@ -7764,10 +7764,10 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>1</v>
@@ -7817,10 +7817,10 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>2</v>
@@ -7870,10 +7870,10 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>2</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>2</v>
@@ -7974,10 +7974,10 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>1</v>
@@ -8025,10 +8025,10 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>2</v>
@@ -8076,10 +8076,10 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>2</v>
@@ -8129,10 +8129,10 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>2</v>
@@ -8180,10 +8180,10 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>1</v>
@@ -8233,10 +8233,10 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>2</v>
@@ -8286,10 +8286,10 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>2</v>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>2</v>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>56</v>
@@ -8421,7 +8421,7 @@
         <v>2</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M135" s="5">
         <v>0</v>
@@ -8439,10 +8439,10 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>2</v>
@@ -8492,10 +8492,10 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>2</v>
@@ -8545,10 +8545,10 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>1</v>
@@ -8596,10 +8596,10 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>1</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>1</v>
@@ -8700,10 +8700,10 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>2</v>
@@ -8751,10 +8751,10 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>2</v>
@@ -8802,10 +8802,10 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>2</v>
@@ -8855,10 +8855,10 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>1</v>
@@ -8906,10 +8906,10 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>1</v>
@@ -8957,10 +8957,10 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>1</v>
@@ -9008,10 +9008,10 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>2</v>
@@ -9059,10 +9059,10 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>1</v>
@@ -9112,10 +9112,10 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>1</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="19" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B150" s="33" t="s">
         <v>55</v>
@@ -9196,7 +9196,7 @@
         <v>2</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M150" s="10">
         <v>0</v>
@@ -9214,10 +9214,10 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>1</v>
@@ -9265,10 +9265,10 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>1</v>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>2</v>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B154" s="34" t="s">
         <v>57</v>
@@ -9402,7 +9402,7 @@
         <v>2</v>
       </c>
       <c r="L154" s="28" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M154" s="18">
         <v>0</v>
@@ -9420,10 +9420,10 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>2</v>
@@ -9471,10 +9471,10 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>1</v>
@@ -9522,10 +9522,10 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>1</v>
@@ -9573,10 +9573,10 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>1</v>
@@ -9626,10 +9626,10 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>2</v>
@@ -9677,10 +9677,10 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>2</v>
@@ -9730,10 +9730,10 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>2</v>
@@ -9783,10 +9783,10 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>1</v>
@@ -9834,10 +9834,10 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>2</v>
@@ -9885,10 +9885,10 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>1</v>
@@ -9938,10 +9938,10 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>1</v>
@@ -9989,10 +9989,10 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>1</v>
@@ -10040,10 +10040,10 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>2</v>
@@ -10093,10 +10093,10 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C168" s="10" t="s">
         <v>1</v>
@@ -10146,10 +10146,10 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>1</v>
@@ -10197,10 +10197,10 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>1</v>
@@ -10250,10 +10250,10 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>2</v>
@@ -10301,10 +10301,10 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>1</v>
@@ -10352,10 +10352,10 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>2</v>
@@ -10403,10 +10403,10 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>2</v>
@@ -10454,10 +10454,10 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>2</v>
@@ -10505,10 +10505,10 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C176" s="10" t="s">
         <v>1</v>
@@ -10556,10 +10556,10 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>2</v>
@@ -10609,10 +10609,10 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C178" s="10" t="s">
         <v>2</v>
@@ -10660,10 +10660,10 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>2</v>
@@ -10713,7 +10713,7 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="19" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B180" s="33" t="s">
         <v>52</v>
@@ -10746,7 +10746,7 @@
         <v>2</v>
       </c>
       <c r="L180" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M180" s="10">
         <v>0</v>
@@ -10764,10 +10764,10 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>1</v>
@@ -10817,10 +10817,10 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C182" s="10" t="s">
         <v>2</v>
@@ -10868,10 +10868,10 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>2</v>
@@ -10919,10 +10919,10 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>2</v>
@@ -10972,10 +10972,10 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>1</v>
@@ -11023,10 +11023,10 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C186" s="10" t="s">
         <v>2</v>
@@ -11074,10 +11074,10 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>1</v>
@@ -11127,10 +11127,10 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C188" s="10" t="s">
         <v>1</v>
@@ -11178,10 +11178,10 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>1</v>
@@ -11229,10 +11229,10 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C190" s="10" t="s">
         <v>2</v>
@@ -11280,10 +11280,10 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>1</v>
@@ -11331,10 +11331,10 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C192" s="10" t="s">
         <v>2</v>
@@ -11384,10 +11384,10 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>1</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="19" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B194" s="33" t="s">
         <v>53</v>
@@ -11468,7 +11468,7 @@
         <v>2</v>
       </c>
       <c r="L194" s="13" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M194" s="10">
         <v>0</v>
@@ -11486,10 +11486,10 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>1</v>
@@ -11537,10 +11537,10 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>1</v>
@@ -11590,10 +11590,10 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>1</v>
@@ -11641,10 +11641,10 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>2</v>
@@ -11694,10 +11694,10 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>1</v>
@@ -11745,10 +11745,10 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>1</v>
@@ -11798,10 +11798,10 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>2</v>
@@ -11849,7 +11849,7 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B202" s="33" t="s">
         <v>54</v>
@@ -11882,7 +11882,7 @@
         <v>2</v>
       </c>
       <c r="L202" s="20" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M202" s="10">
         <v>0</v>
@@ -11900,10 +11900,10 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>2</v>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C204" s="10" t="s">
         <v>2</v>
@@ -12004,10 +12004,10 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="31" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B205" s="31" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>2</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="19" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B206" s="33" t="s">
         <v>52</v>
@@ -12088,7 +12088,7 @@
         <v>2</v>
       </c>
       <c r="L206" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M206" s="14">
         <v>0</v>
@@ -12106,7 +12106,7 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>53</v>
@@ -12139,7 +12139,7 @@
         <v>2</v>
       </c>
       <c r="L207" s="7" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M207" s="5">
         <v>0</v>
@@ -12157,10 +12157,10 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>1</v>
@@ -12210,10 +12210,10 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>1</v>
@@ -12261,10 +12261,10 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>2</v>
@@ -12312,10 +12312,10 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>1</v>
@@ -12365,10 +12365,10 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>1</v>
@@ -12416,10 +12416,10 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>2</v>
@@ -12469,10 +12469,10 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>1</v>
@@ -12520,10 +12520,10 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>2</v>
@@ -12571,10 +12571,10 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>1</v>
@@ -12622,10 +12622,10 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>2</v>
@@ -12675,10 +12675,10 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>1</v>
@@ -12726,10 +12726,10 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>1</v>
@@ -12777,10 +12777,10 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>1</v>
@@ -12828,10 +12828,10 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>2</v>
@@ -12879,10 +12879,10 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>2</v>
@@ -12932,10 +12932,10 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>2</v>
@@ -12983,10 +12983,10 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>1</v>
@@ -13034,10 +13034,10 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>2</v>
@@ -13085,10 +13085,10 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>2</v>
@@ -13138,10 +13138,10 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>2</v>
@@ -13189,10 +13189,10 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>1</v>
@@ -13242,10 +13242,10 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>2</v>
@@ -13295,10 +13295,10 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>2</v>
@@ -13348,10 +13348,10 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>1</v>
@@ -13399,10 +13399,10 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>1</v>
@@ -13450,10 +13450,10 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>2</v>
@@ -13503,10 +13503,10 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>2</v>
@@ -13554,10 +13554,10 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>1</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>2</v>
@@ -13658,10 +13658,10 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>2</v>
@@ -13709,10 +13709,10 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>1</v>
@@ -13760,10 +13760,10 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>2</v>
@@ -13811,10 +13811,10 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>1</v>
@@ -13862,10 +13862,10 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>1</v>
@@ -13915,10 +13915,10 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>2</v>
@@ -13966,10 +13966,10 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>2</v>
@@ -14017,10 +14017,10 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>2</v>
@@ -14070,10 +14070,10 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>1</v>
@@ -14121,10 +14121,10 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>2</v>
@@ -14172,10 +14172,10 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>1</v>
@@ -14225,10 +14225,10 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>1</v>
@@ -14278,10 +14278,10 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>1</v>
@@ -14329,10 +14329,10 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>2</v>
@@ -14380,10 +14380,10 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>1</v>
@@ -14433,10 +14433,10 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>1</v>
@@ -14484,7 +14484,7 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="19" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B253" s="33" t="s">
         <v>54</v>
@@ -14517,7 +14517,7 @@
         <v>2</v>
       </c>
       <c r="L253" s="20" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M253" s="5">
         <v>0</v>
@@ -14535,10 +14535,10 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>1</v>
@@ -14586,10 +14586,10 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>1</v>
@@ -14639,10 +14639,10 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="31" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B256" s="31" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>2</v>
@@ -14690,10 +14690,10 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>2</v>
@@ -14741,10 +14741,10 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>1</v>
@@ -14792,7 +14792,7 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="19" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B259" s="33" t="s">
         <v>55</v>
@@ -14825,7 +14825,7 @@
         <v>2</v>
       </c>
       <c r="L259" s="7" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M259" s="5">
         <v>0</v>
@@ -14843,10 +14843,10 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>1</v>
@@ -14896,10 +14896,10 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>2</v>
@@ -14947,10 +14947,10 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>2</v>
@@ -15000,10 +15000,10 @@
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>2</v>
@@ -15053,10 +15053,10 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>1</v>
@@ -15104,10 +15104,10 @@
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>1</v>
@@ -15155,10 +15155,10 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>2</v>
@@ -15206,10 +15206,10 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>1</v>
@@ -15259,10 +15259,10 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>1</v>
@@ -15310,10 +15310,10 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>2</v>
@@ -15361,10 +15361,10 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>1</v>
@@ -15414,10 +15414,10 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>1</v>
@@ -15467,10 +15467,10 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>1</v>
@@ -15518,7 +15518,7 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="19" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B273" s="33" t="s">
         <v>56</v>
@@ -15551,7 +15551,7 @@
         <v>2</v>
       </c>
       <c r="L273" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M273" s="5">
         <v>0</v>
@@ -15569,10 +15569,10 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>1</v>
@@ -15620,10 +15620,10 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>2</v>
@@ -15671,10 +15671,10 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>1</v>
@@ -15722,10 +15722,10 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>2</v>
@@ -15775,10 +15775,10 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>2</v>
@@ -15826,10 +15826,10 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>1</v>
@@ -15877,10 +15877,10 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>2</v>
@@ -15930,10 +15930,10 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>2</v>
@@ -15983,10 +15983,10 @@
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>2</v>
@@ -16034,10 +16034,10 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>1</v>
@@ -16085,10 +16085,10 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>2</v>
@@ -16138,10 +16138,10 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>2</v>
@@ -16189,10 +16189,10 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>2</v>
@@ -16240,10 +16240,10 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>1</v>
@@ -16291,10 +16291,10 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>1</v>
@@ -16344,10 +16344,10 @@
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>2</v>
@@ -16395,10 +16395,10 @@
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>1</v>
@@ -16448,10 +16448,10 @@
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>1</v>
@@ -16499,10 +16499,10 @@
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>1</v>
@@ -16552,10 +16552,10 @@
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>2</v>
@@ -16603,10 +16603,10 @@
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>1</v>
@@ -16654,10 +16654,10 @@
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>2</v>
@@ -16705,10 +16705,10 @@
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>2</v>
@@ -16758,10 +16758,10 @@
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>1</v>
@@ -16809,10 +16809,10 @@
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>1</v>
@@ -16860,10 +16860,10 @@
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>1</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="19" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B300" s="33" t="s">
         <v>57</v>
@@ -16944,7 +16944,7 @@
         <v>2</v>
       </c>
       <c r="L300" s="7" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M300" s="10">
         <v>0</v>
@@ -16962,10 +16962,10 @@
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>1</v>
@@ -17013,10 +17013,10 @@
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>1</v>
@@ -17064,10 +17064,10 @@
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>2</v>
@@ -17115,10 +17115,10 @@
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>2</v>
@@ -17166,10 +17166,10 @@
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>2</v>
@@ -17217,10 +17217,10 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>1</v>
@@ -17268,10 +17268,10 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="31" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B307" s="31" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C307" s="17" t="s">
         <v>2</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="19" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B308" s="33" t="s">
         <v>55</v>
@@ -17352,7 +17352,7 @@
         <v>2</v>
       </c>
       <c r="L308" s="7" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M308" s="14">
         <v>0</v>
@@ -17370,7 +17370,7 @@
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="19" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B309" s="33" t="s">
         <v>52</v>
@@ -17403,7 +17403,7 @@
         <v>2</v>
       </c>
       <c r="L309" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M309" s="8">
         <v>0</v>
@@ -17421,10 +17421,10 @@
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C310" s="10" t="s">
         <v>1</v>
@@ -17472,10 +17472,10 @@
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>1</v>
@@ -17525,10 +17525,10 @@
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C312" s="10" t="s">
         <v>1</v>
@@ -17576,10 +17576,10 @@
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>2</v>
@@ -17627,10 +17627,10 @@
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C314" s="10" t="s">
         <v>1</v>
@@ -17680,10 +17680,10 @@
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>1</v>
@@ -17731,10 +17731,10 @@
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C316" s="10" t="s">
         <v>2</v>
@@ -17782,10 +17782,10 @@
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>1</v>
@@ -17833,10 +17833,10 @@
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C318" s="10" t="s">
         <v>2</v>
@@ -17884,10 +17884,10 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>2</v>
@@ -17935,10 +17935,10 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C320" s="10" t="s">
         <v>2</v>
@@ -17988,10 +17988,10 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>1</v>
@@ -18039,10 +18039,10 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C322" s="10" t="s">
         <v>1</v>
@@ -18092,10 +18092,10 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>2</v>
@@ -18143,10 +18143,10 @@
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C324" s="10" t="s">
         <v>1</v>
@@ -18196,10 +18196,10 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>1</v>
@@ -18247,10 +18247,10 @@
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C326" s="10" t="s">
         <v>2</v>
@@ -18300,10 +18300,10 @@
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>2</v>
@@ -18351,10 +18351,10 @@
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C328" s="10" t="s">
         <v>1</v>
@@ -18402,10 +18402,10 @@
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>1</v>
@@ -18453,10 +18453,10 @@
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C330" s="10" t="s">
         <v>2</v>
@@ -18506,10 +18506,10 @@
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>2</v>
@@ -18557,10 +18557,10 @@
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C332" s="10" t="s">
         <v>2</v>
@@ -18610,10 +18610,10 @@
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>1</v>
@@ -18661,10 +18661,10 @@
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C334" s="10" t="s">
         <v>1</v>
@@ -18712,10 +18712,10 @@
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>2</v>
@@ -18763,10 +18763,10 @@
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C336" s="10" t="s">
         <v>2</v>
@@ -18814,10 +18814,10 @@
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>2</v>
@@ -18865,10 +18865,10 @@
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C338" s="10" t="s">
         <v>1</v>
@@ -18916,10 +18916,10 @@
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>2</v>
@@ -18969,10 +18969,10 @@
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>2</v>
@@ -19020,10 +19020,10 @@
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>2</v>
@@ -19071,10 +19071,10 @@
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C342" s="10" t="s">
         <v>1</v>
@@ -19122,10 +19122,10 @@
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>1</v>
@@ -19175,10 +19175,10 @@
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C344" s="10" t="s">
         <v>1</v>
@@ -19228,10 +19228,10 @@
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>2</v>
@@ -19279,10 +19279,10 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C346" s="10" t="s">
         <v>2</v>
@@ -19332,10 +19332,10 @@
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>2</v>
@@ -19383,10 +19383,10 @@
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C348" s="10" t="s">
         <v>1</v>
@@ -19434,10 +19434,10 @@
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>1</v>
@@ -19487,10 +19487,10 @@
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C350" s="10" t="s">
         <v>1</v>
@@ -19538,10 +19538,10 @@
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>2</v>
@@ -19589,10 +19589,10 @@
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C352" s="10" t="s">
         <v>1</v>
@@ -19642,10 +19642,10 @@
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>1</v>
@@ -19693,10 +19693,10 @@
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C354" s="10" t="s">
         <v>2</v>
@@ -19744,10 +19744,10 @@
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>1</v>
@@ -19795,10 +19795,10 @@
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C356" s="10" t="s">
         <v>1</v>
@@ -19848,10 +19848,10 @@
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>2</v>
@@ -19899,10 +19899,10 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="31" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B358" s="31" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C358" s="18" t="s">
         <v>2</v>
@@ -19950,10 +19950,10 @@
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>2</v>
@@ -20003,10 +20003,10 @@
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C360" s="10" t="s">
         <v>1</v>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>1</v>
@@ -20105,10 +20105,10 @@
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C362" s="10" t="s">
         <v>1</v>
@@ -20158,10 +20158,10 @@
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>2</v>
@@ -20209,10 +20209,10 @@
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C364" s="10" t="s">
         <v>2</v>
@@ -20262,10 +20262,10 @@
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>1</v>
@@ -20313,10 +20313,10 @@
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C366" s="10" t="s">
         <v>2</v>
@@ -20364,10 +20364,10 @@
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>1</v>
@@ -20417,10 +20417,10 @@
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C368" s="10" t="s">
         <v>1</v>
@@ -20468,10 +20468,10 @@
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>2</v>
@@ -20519,10 +20519,10 @@
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C370" s="10" t="s">
         <v>1</v>
@@ -20572,10 +20572,10 @@
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>1</v>
@@ -20623,10 +20623,10 @@
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C372" s="10" t="s">
         <v>1</v>
@@ -20674,10 +20674,10 @@
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>2</v>
@@ -20725,10 +20725,10 @@
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C374" s="10" t="s">
         <v>1</v>
@@ -20776,10 +20776,10 @@
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>2</v>
@@ -20829,10 +20829,10 @@
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C376" s="10" t="s">
         <v>2</v>
@@ -20880,10 +20880,10 @@
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>2</v>
@@ -20931,10 +20931,10 @@
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C378" s="10" t="s">
         <v>1</v>
@@ -20984,10 +20984,10 @@
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>2</v>
@@ -21037,10 +21037,10 @@
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C380" s="10" t="s">
         <v>2</v>
@@ -21088,10 +21088,10 @@
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>1</v>
@@ -21139,10 +21139,10 @@
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C382" s="10" t="s">
         <v>2</v>
@@ -21190,10 +21190,10 @@
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>2</v>
@@ -21241,10 +21241,10 @@
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C384" s="10" t="s">
         <v>1</v>
@@ -21292,10 +21292,10 @@
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>2</v>
@@ -21345,10 +21345,10 @@
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C386" s="10" t="s">
         <v>1</v>
@@ -21396,10 +21396,10 @@
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>1</v>
@@ -21449,10 +21449,10 @@
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C388" s="10" t="s">
         <v>1</v>
@@ -21500,10 +21500,10 @@
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>2</v>
@@ -21551,10 +21551,10 @@
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C390" s="10" t="s">
         <v>1</v>
@@ -21602,10 +21602,10 @@
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>1</v>
@@ -21655,10 +21655,10 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C392" s="10" t="s">
         <v>2</v>
@@ -21706,10 +21706,10 @@
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>2</v>
@@ -21757,10 +21757,10 @@
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C394" s="10" t="s">
         <v>1</v>
@@ -21808,10 +21808,10 @@
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>2</v>
@@ -21861,10 +21861,10 @@
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C396" s="10" t="s">
         <v>1</v>
@@ -21914,10 +21914,10 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>1</v>
@@ -21965,10 +21965,10 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C398" s="10" t="s">
         <v>2</v>
@@ -22016,10 +22016,10 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>1</v>
@@ -22067,10 +22067,10 @@
     </row>
     <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C400" s="10" t="s">
         <v>1</v>
@@ -22120,10 +22120,10 @@
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>2</v>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="19" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B402" s="33" t="s">
         <v>56</v>
@@ -22204,7 +22204,7 @@
         <v>2</v>
       </c>
       <c r="L402" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M402" s="10">
         <v>0</v>
@@ -22222,10 +22222,10 @@
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>2</v>
@@ -22275,7 +22275,7 @@
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="19" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B404" s="33" t="s">
         <v>57</v>
@@ -22308,7 +22308,7 @@
         <v>2</v>
       </c>
       <c r="L404" s="13" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M404" s="10">
         <v>0</v>
@@ -22326,10 +22326,10 @@
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>2</v>
@@ -22379,10 +22379,10 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C406" s="10" t="s">
         <v>2</v>
@@ -22432,10 +22432,10 @@
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>2</v>
@@ -22483,7 +22483,7 @@
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="19" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B408" s="33" t="s">
         <v>53</v>
@@ -22516,7 +22516,7 @@
         <v>2</v>
       </c>
       <c r="L408" s="13" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M408" s="10">
         <v>0</v>
@@ -22534,7 +22534,7 @@
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="19" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B409" s="33" t="s">
         <v>54</v>
@@ -22567,7 +22567,7 @@
         <v>2</v>
       </c>
       <c r="L409" s="20" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M409" s="8">
         <v>0</v>
